--- a/rapports/BurdownChart/BurnDownChartCompilationSprint3.xlsx
+++ b/rapports/BurdownChart/BurnDownChartCompilationSprint3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murat\Documents\MiniJaja\rapports\BurdownChart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62FF08F9-993C-41E9-9DF9-193F5D229685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1CB69D-C3A8-4DFC-86A3-0953F9163DC4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,6 +298,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$26</c:f>
@@ -474,7 +488,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1565,7 +1578,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1574,7 +1587,7 @@
     <col min="8" max="8" width="84" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2055,7 +2068,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
     </row>
